--- a/model/SFC/CV/ABS_CV/ABS_CV[CV330].xlsx
+++ b/model/SFC/CV/ABS_CV/ABS_CV[CV330].xlsx
@@ -17,6 +17,7 @@
     <sheet name="Outputs" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Configs" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="DependentOn" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ManualTC" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,21 +519,232 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DependentName</t>
+          <t>TCName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>InputSignal</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>InputData</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TCName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VehicleType</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>InputData</t>
+          <t>RunnableOpt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ConfigOpt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CycleOption</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CyclePeriod(ms)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CycleDelta(%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CycleDuration(ms)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CycleMode</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PreconditionSignal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PreconditionValue</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>InputSignal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>InputValue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>InitSignal</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>InitValue</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OutputSignal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OutputValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aasd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Cooling_System.Input_LowATMCoolantWarningStatus</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Cooling_System.Input_LowATMCoolantWarningStatus</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.xEV_Battery_Warning.Input_BmsCluAlarm3rdStatus</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.xEV_Battery_Warning.Input_BmsCluAlarm3rdStatus</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>OFF</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
